--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value151.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value151.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.668021804635362</v>
+        <v>2.176578283309937</v>
       </c>
       <c r="B1">
-        <v>2.63947648147073</v>
+        <v>4.545527935028076</v>
       </c>
       <c r="C1">
-        <v>2.687527027425844</v>
+        <v>3.96592903137207</v>
       </c>
       <c r="D1">
-        <v>1.04282332345702</v>
+        <v>1.509686470031738</v>
       </c>
       <c r="E1">
-        <v>0.7052982283816337</v>
+        <v>0.8882495164871216</v>
       </c>
     </row>
   </sheetData>
